--- a/Data/AllResults_Amikacin (750Mg).xlsx
+++ b/Data/AllResults_Amikacin (750Mg).xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <t>Molecule</t>
   </si>
@@ -174,28 +174,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -203,31 +203,31 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
